--- a/hauntedparadise/Excels/Language.xlsx
+++ b/hauntedparadise/Excels/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD1D58-8514-40B3-B7EF-DFADC5D65FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8796102A-1F96-42AB-9C3B-42663BF26E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="896">
   <si>
     <t>int</t>
   </si>
@@ -2895,14 +2895,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>鼠标左键建造</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标右键连续建造</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>退格键返回建筑选择界面</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2919,14 +2911,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Left mouse button to build</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right-click to build continuously</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Esc to close the build page</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2959,6 +2943,14 @@
   </si>
   <si>
     <t>Build</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuous Build</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续建造</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3561,7 +3553,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F360" sqref="F360"/>
+      <selection pane="bottomRight" activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9453,7 +9445,7 @@
       </c>
       <c r="C351" s="12"/>
       <c r="D351" s="25" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E351" s="23" t="s">
         <v>877</v>
@@ -9483,7 +9475,7 @@
       </c>
       <c r="C352" s="12"/>
       <c r="D352" s="25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E352" s="23" t="s">
         <v>878</v>
@@ -9509,14 +9501,14 @@
         <v>20103</v>
       </c>
       <c r="B353" s="24" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C353" s="12"/>
       <c r="D353" s="25" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="E353" s="23" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
@@ -9539,14 +9531,14 @@
         <v>20104</v>
       </c>
       <c r="B354" s="24" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C354" s="12"/>
       <c r="D354" s="25" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E354" s="23" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="F354" s="12"/>
       <c r="G354" s="12"/>
@@ -9569,14 +9561,14 @@
         <v>20105</v>
       </c>
       <c r="B355" s="24" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C355" s="12"/>
       <c r="D355" s="25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E355" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -9599,14 +9591,14 @@
         <v>20106</v>
       </c>
       <c r="B356" s="24" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C356" s="12"/>
       <c r="D356" s="25" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E356" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
@@ -9629,14 +9621,14 @@
         <v>20107</v>
       </c>
       <c r="B357" s="24" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C357" s="12"/>
       <c r="D357" s="25" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E357" s="23" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>

--- a/hauntedparadise/Excels/Language.xlsx
+++ b/hauntedparadise/Excels/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8796102A-1F96-42AB-9C3B-42663BF26E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C18111-4842-473A-83F8-7DD7A33B6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="914">
   <si>
     <t>int</t>
   </si>
@@ -2953,12 +2953,81 @@
     <t>连续建造</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>JumpGameFailed</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>UserId：{0}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>User id:{0}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换家园失败！</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换家园</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch home</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch home failed! </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch to a designated home</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至指定家园</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入userid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the user id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentUserId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchHomeBtn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchHomeConfirm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpHomeText001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpHomeText002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -3047,6 +3116,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3083,7 +3165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3153,6 +3235,19 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3553,7 +3648,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E363" sqref="E363"/>
+      <selection pane="bottomRight" activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9650,34 +9745,91 @@
       <c r="B358" s="3"/>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B359" s="4"/>
+      <c r="A359" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B359" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="E359" s="26" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B360" s="3"/>
+      <c r="A360" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D360" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="E360" s="26" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B361" s="3"/>
+      <c r="A361" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B361" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D361" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="E361" s="26" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A362" s="10"/>
-      <c r="B362" s="4"/>
+      <c r="A362" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B362" s="30" t="s">
+        <v>912</v>
+      </c>
       <c r="C362" s="10"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="7"/>
+      <c r="D362" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="E362" s="23" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A363" s="7"/>
-      <c r="B363" s="3"/>
+      <c r="A363" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B363" s="24" t="s">
+        <v>913</v>
+      </c>
       <c r="C363" s="10"/>
-      <c r="D363" s="10"/>
-      <c r="E363" s="6"/>
+      <c r="D363" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="E363" s="29" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A364" s="7"/>
-      <c r="B364" s="3"/>
+      <c r="A364" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B364" s="24" t="s">
+        <v>911</v>
+      </c>
       <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="6"/>
+      <c r="D364" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365" s="7"/>

--- a/hauntedparadise/Excels/Language.xlsx
+++ b/hauntedparadise/Excels/Language.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C18111-4842-473A-83F8-7DD7A33B6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF583D-1CCB-470A-B1B1-E7D7CF6EF4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="928">
   <si>
     <t>int</t>
   </si>
@@ -56,6 +65,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一</t>
@@ -65,7 +75,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -163,6 +173,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Ending_</t>
@@ -182,6 +193,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Title1</t>
@@ -199,6 +211,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Ending_</t>
@@ -218,6 +231,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Content1</t>
@@ -235,6 +249,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Ending_</t>
@@ -254,6 +269,7 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Title2</t>
@@ -437,6 +453,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>第</t>
@@ -455,6 +472,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天</t>
@@ -472,6 +490,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>耗时：</t>
@@ -498,6 +517,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>创建日期：</t>
@@ -2489,6 +2509,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{0}</t>
@@ -2498,6 +2519,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天前</t>
@@ -3020,6 +3042,51 @@
   </si>
   <si>
     <t>JumpHomeText002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingDesc_0001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingDesc_0002</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0003</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0004</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0005</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0006</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0007</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0008</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0009</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0010</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0011</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0012</t>
+  </si>
+  <si>
+    <t>Wooden Board</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3037,30 +3104,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3079,7 +3149,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3090,17 +3160,20 @@
     <font>
       <sz val="9.75"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3642,13 +3715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T587"/>
+  <dimension ref="A1:T600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B350" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F369" sqref="F369"/>
+      <selection pane="bottomRight" activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9746,589 +9819,688 @@
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B359" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D359" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="E359" s="26" t="s">
-        <v>899</v>
+        <v>21001</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
-        <v>30002</v>
+        <v>21002</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="D360" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="E360" s="26" t="s">
-        <v>901</v>
+        <v>915</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B361" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="D361" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="E361" s="26" t="s">
-        <v>902</v>
+        <v>21003</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B362" s="30" t="s">
-        <v>912</v>
-      </c>
-      <c r="C362" s="10"/>
-      <c r="D362" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="E362" s="23" t="s">
-        <v>906</v>
+        <v>21004</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B363" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="C363" s="10"/>
-      <c r="D363" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="E363" s="29" t="s">
-        <v>907</v>
+        <v>21005</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
+        <v>21006</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>21007</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>21008</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>21009</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>21010</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>21011</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>21012</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B371" s="3"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B372" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D372" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="E372" s="26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="E373" s="26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B374" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B375" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C375" s="10"/>
+      <c r="D375" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="E375" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B376" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="C376" s="10"/>
+      <c r="D376" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="E376" s="29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
         <v>30006</v>
       </c>
-      <c r="B364" s="24" t="s">
+      <c r="B377" s="24" t="s">
         <v>911</v>
       </c>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10" t="s">
+      <c r="C377" s="10"/>
+      <c r="D377" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="E364" s="6" t="s">
+      <c r="E377" s="6" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A365" s="7"/>
-      <c r="B365" s="4"/>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="6"/>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="6"/>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A367" s="7"/>
-      <c r="B367" s="20"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="6"/>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="6"/>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="6"/>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="6"/>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A371" s="11"/>
-      <c r="B371" s="5"/>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="7"/>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A372" s="11"/>
-      <c r="B372" s="12"/>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
-      <c r="E372" s="7"/>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A373" s="11"/>
-      <c r="B373" s="5"/>
-      <c r="C373" s="12"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="15"/>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A374" s="11"/>
-      <c r="B374" s="5"/>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
-      <c r="E374" s="15"/>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A375" s="11"/>
-      <c r="B375" s="5"/>
-      <c r="C375" s="12"/>
-      <c r="D375" s="12"/>
-      <c r="E375" s="15"/>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A376" s="11"/>
-      <c r="B376" s="5"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="7"/>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A377" s="11"/>
-      <c r="B377" s="5"/>
-      <c r="C377" s="12"/>
-      <c r="D377" s="12"/>
-      <c r="E377" s="7"/>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A378" s="14"/>
-      <c r="B378" s="14"/>
-      <c r="C378" s="17"/>
-      <c r="D378" s="17"/>
-      <c r="E378" s="14"/>
-    </row>
-    <row r="379" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="12"/>
-      <c r="B379" s="12"/>
-      <c r="C379" s="12"/>
-      <c r="D379" s="12"/>
-      <c r="E379" s="15"/>
-      <c r="F379" s="12"/>
-      <c r="G379" s="12"/>
-      <c r="H379" s="12"/>
-      <c r="I379" s="12"/>
-      <c r="J379" s="12"/>
-      <c r="K379" s="12"/>
-      <c r="L379" s="12"/>
-      <c r="M379" s="12"/>
-      <c r="N379" s="12"/>
-      <c r="O379" s="12"/>
-      <c r="P379" s="12"/>
-      <c r="Q379" s="12"/>
-      <c r="R379" s="12"/>
-      <c r="S379" s="12"/>
-      <c r="T379" s="12"/>
-    </row>
-    <row r="387" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
-      <c r="C387" s="10"/>
-      <c r="D387" s="10"/>
-      <c r="E387" s="7"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A388" s="7"/>
-      <c r="B388" s="20"/>
-      <c r="C388" s="10"/>
-      <c r="D388" s="10"/>
-      <c r="E388" s="21"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A389" s="12"/>
-      <c r="B389" s="20"/>
-      <c r="E389" s="21"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A390" s="7"/>
-      <c r="B390" s="20"/>
-      <c r="E390" s="21"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A391" s="12"/>
-      <c r="B391" s="20"/>
-      <c r="E391" s="21"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A392" s="7"/>
-      <c r="B392" s="20"/>
-      <c r="E392" s="21"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A393" s="12"/>
-      <c r="B393" s="20"/>
-      <c r="E393" s="21"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A395" s="12"/>
-      <c r="B395" s="20"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
-      <c r="E396" s="21"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A397" s="12"/>
-      <c r="B397" s="20"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
-      <c r="E398" s="21"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A399" s="12"/>
-      <c r="B399" s="20"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" s="7"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="10"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="6"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="7"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="10"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" s="7"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="10"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="6"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" s="7"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="10"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" s="7"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="10"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" s="7"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="6"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="11"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="7"/>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A385" s="11"/>
+      <c r="B385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="7"/>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A386" s="11"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="15"/>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A387" s="11"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="15"/>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A388" s="11"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="15"/>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A389" s="11"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="7"/>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A390" s="11"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="7"/>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="14"/>
+    </row>
+    <row r="392" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="12"/>
+      <c r="B392" s="12"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="15"/>
+      <c r="F392" s="12"/>
+      <c r="G392" s="12"/>
+      <c r="H392" s="12"/>
+      <c r="I392" s="12"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="12"/>
+      <c r="L392" s="12"/>
+      <c r="M392" s="12"/>
+      <c r="N392" s="12"/>
+      <c r="O392" s="12"/>
+      <c r="P392" s="12"/>
+      <c r="Q392" s="12"/>
+      <c r="R392" s="12"/>
+      <c r="S392" s="12"/>
+      <c r="T392" s="12"/>
+    </row>
+    <row r="400" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="7"/>
+      <c r="C400" s="10"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A401" s="12"/>
+      <c r="A401" s="7"/>
       <c r="B401" s="20"/>
+      <c r="C401" s="10"/>
+      <c r="D401" s="10"/>
       <c r="E401" s="21"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A402" s="7"/>
+      <c r="A402" s="12"/>
       <c r="B402" s="20"/>
+      <c r="E402" s="21"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="12"/>
+      <c r="A403" s="7"/>
       <c r="B403" s="20"/>
       <c r="E403" s="21"/>
-      <c r="G403" s="6"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="7"/>
+      <c r="A404" s="12"/>
       <c r="B404" s="20"/>
       <c r="E404" s="21"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A405" s="12"/>
+      <c r="A405" s="7"/>
       <c r="B405" s="20"/>
+      <c r="E405" s="21"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="7"/>
+      <c r="A406" s="12"/>
       <c r="B406" s="20"/>
+      <c r="E406" s="21"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A407" s="12"/>
+      <c r="A407" s="7"/>
       <c r="B407" s="20"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A408" s="7"/>
+      <c r="A408" s="12"/>
       <c r="B408" s="20"/>
-      <c r="E408" s="21"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A409" s="12"/>
+      <c r="A409" s="7"/>
       <c r="B409" s="20"/>
+      <c r="E409" s="21"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A410" s="7"/>
+      <c r="A410" s="12"/>
       <c r="B410" s="20"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A411" s="12"/>
+      <c r="A411" s="7"/>
       <c r="B411" s="20"/>
+      <c r="E411" s="21"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A412" s="7"/>
+      <c r="A412" s="12"/>
       <c r="B412" s="20"/>
-      <c r="E412" s="21"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A413" s="12"/>
+      <c r="A413" s="7"/>
       <c r="B413" s="20"/>
-      <c r="E413" s="21"/>
-      <c r="G413" s="6"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A414" s="7"/>
+      <c r="A414" s="12"/>
       <c r="B414" s="20"/>
+      <c r="E414" s="21"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A415" s="12"/>
+      <c r="A415" s="7"/>
       <c r="B415" s="20"/>
-      <c r="E415" s="21"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416" s="7"/>
+      <c r="A416" s="12"/>
       <c r="B416" s="20"/>
       <c r="E416" s="21"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A417" s="12"/>
+      <c r="G416" s="6"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A417" s="7"/>
       <c r="B417" s="20"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E417" s="21"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="12"/>
       <c r="B418" s="20"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="7"/>
       <c r="B419" s="20"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="12"/>
       <c r="B420" s="20"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
       <c r="B421" s="20"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E421" s="21"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="12"/>
       <c r="B422" s="20"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A423" s="12"/>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423" s="7"/>
       <c r="B423" s="20"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="12"/>
-      <c r="E424" s="15"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A425" s="12"/>
-      <c r="B425" s="5"/>
-      <c r="E425" s="15"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B424" s="20"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A425" s="7"/>
+      <c r="B425" s="20"/>
+      <c r="E425" s="21"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="12"/>
-      <c r="B426" s="5"/>
-      <c r="E426" s="15"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A427" s="12"/>
-      <c r="B427" s="5"/>
-      <c r="E427" s="15"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B426" s="20"/>
+      <c r="E426" s="21"/>
+      <c r="G426" s="6"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A427" s="7"/>
+      <c r="B427" s="20"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="12"/>
-      <c r="B428" s="5"/>
-      <c r="E428" s="15"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A429" s="12"/>
-      <c r="B429" s="12"/>
-      <c r="E429" s="15"/>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A479" s="12"/>
-      <c r="B479" s="12"/>
-      <c r="E479" s="15"/>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A480" s="12"/>
-      <c r="B480" s="12"/>
-      <c r="E480" s="15"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A481" s="12"/>
-      <c r="B481" s="12"/>
-      <c r="E481" s="15"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A482" s="12"/>
-      <c r="B482" s="12"/>
-      <c r="E482" s="6"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A483" s="12"/>
-      <c r="B483" s="12"/>
-      <c r="E483" s="6"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A484" s="12"/>
-      <c r="B484" s="12"/>
-      <c r="E484" s="6"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A485" s="12"/>
-      <c r="B485" s="12"/>
-      <c r="E485" s="15"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A486" s="12"/>
-      <c r="B486" s="12"/>
-      <c r="E486" s="15"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A487" s="12"/>
-      <c r="B487" s="12"/>
-      <c r="E487" s="15"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A488" s="12"/>
-      <c r="B488" s="12"/>
-      <c r="E488" s="15"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A489" s="12"/>
-      <c r="B489" s="12"/>
-      <c r="E489" s="15"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A490" s="12"/>
-      <c r="B490" s="12"/>
-      <c r="E490" s="15"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A491" s="12"/>
-      <c r="B491" s="12"/>
-      <c r="E491" s="15"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B428" s="20"/>
+      <c r="E428" s="21"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A429" s="7"/>
+      <c r="B429" s="20"/>
+      <c r="E429" s="21"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A430" s="12"/>
+      <c r="B430" s="20"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A431" s="12"/>
+      <c r="B431" s="20"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A432" s="7"/>
+      <c r="B432" s="20"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" s="12"/>
+      <c r="B433" s="20"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" s="7"/>
+      <c r="B434" s="20"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" s="12"/>
+      <c r="B435" s="20"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" s="12"/>
+      <c r="B436" s="20"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" s="12"/>
+      <c r="B437" s="12"/>
+      <c r="E437" s="15"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" s="12"/>
+      <c r="B438" s="5"/>
+      <c r="E438" s="15"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A439" s="12"/>
+      <c r="B439" s="5"/>
+      <c r="E439" s="15"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" s="12"/>
+      <c r="B440" s="5"/>
+      <c r="E440" s="15"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" s="12"/>
+      <c r="B441" s="5"/>
+      <c r="E441" s="15"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A442" s="12"/>
+      <c r="B442" s="12"/>
+      <c r="E442" s="15"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="E492" s="15"/>
-      <c r="H492" s="12"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="E493" s="15"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="E494" s="15"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
-      <c r="E495" s="15"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E495" s="6"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
-      <c r="E496" s="21"/>
-      <c r="F496" s="22"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E496" s="6"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
-      <c r="E497" s="21"/>
-      <c r="F497" s="22"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E497" s="6"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
-      <c r="E498" s="21"/>
-      <c r="F498" s="22"/>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E498" s="15"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
-      <c r="E499" s="21"/>
-      <c r="F499" s="22"/>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E499" s="15"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
-      <c r="E500" s="21"/>
-      <c r="F500" s="22"/>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E500" s="15"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
-      <c r="E501" s="21"/>
-      <c r="F501" s="22"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E501" s="15"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
-      <c r="F502" s="22"/>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E502" s="15"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
-      <c r="F503" s="22"/>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E503" s="15"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
-      <c r="E504" s="21"/>
-      <c r="F504" s="22"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E504" s="15"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
-      <c r="F505" s="22"/>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E505" s="15"/>
+      <c r="H505" s="12"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
-      <c r="E506" s="21"/>
-      <c r="F506" s="22"/>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E506" s="15"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
-      <c r="F507" s="22"/>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E507" s="15"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
-      <c r="F508" s="22"/>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E508" s="15"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="E509" s="21"/>
       <c r="F509" s="22"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
+      <c r="E510" s="21"/>
       <c r="F510" s="22"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="E511" s="21"/>
       <c r="F511" s="22"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="E512" s="21"/>
@@ -10337,11 +10509,13 @@
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
+      <c r="E513" s="21"/>
       <c r="F513" s="22"/>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
+      <c r="E514" s="21"/>
       <c r="F514" s="22"/>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
@@ -10352,12 +10526,12 @@
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
-      <c r="E516" s="21"/>
       <c r="F516" s="22"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
+      <c r="E517" s="21"/>
       <c r="F517" s="22"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
@@ -10368,29 +10542,28 @@
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
+      <c r="E519" s="21"/>
       <c r="F519" s="22"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
-      <c r="E520" s="21"/>
       <c r="F520" s="22"/>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
-      <c r="E521" s="21"/>
       <c r="F521" s="22"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
+      <c r="E522" s="21"/>
       <c r="F522" s="22"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
-      <c r="E523" s="21"/>
       <c r="F523" s="22"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
@@ -10402,6 +10575,7 @@
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
+      <c r="E525" s="21"/>
       <c r="F525" s="22"/>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
@@ -10422,6 +10596,7 @@
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
+      <c r="E529" s="21"/>
       <c r="F529" s="22"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
@@ -10437,71 +10612,86 @@
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
-      <c r="E532" s="15"/>
+      <c r="F532" s="22"/>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
-      <c r="E533" s="15"/>
+      <c r="E533" s="21"/>
+      <c r="F533" s="22"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
-      <c r="E534" s="15"/>
+      <c r="E534" s="21"/>
+      <c r="F534" s="22"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
+      <c r="F535" s="22"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
-      <c r="E536" s="15"/>
+      <c r="E536" s="21"/>
+      <c r="F536" s="22"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
-      <c r="E537" s="15"/>
+      <c r="E537" s="21"/>
+      <c r="F537" s="22"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
+      <c r="F538" s="22"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
+      <c r="F539" s="22"/>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
+      <c r="F540" s="22"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
+      <c r="F541" s="22"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
+      <c r="F542" s="22"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
+      <c r="F543" s="22"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
+      <c r="F544" s="22"/>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
+      <c r="E545" s="15"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
+      <c r="E546" s="15"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
+      <c r="E547" s="15"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="12"/>
@@ -10510,10 +10700,12 @@
     <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
+      <c r="E549" s="15"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
+      <c r="E550" s="15"/>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
@@ -10530,32 +10722,26 @@
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
-      <c r="E554" s="15"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
-      <c r="E555" s="15"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
-      <c r="E556" s="15"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
-      <c r="E557" s="15"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
-      <c r="E558" s="15"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
-      <c r="E559" s="15"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="12"/>
@@ -10563,32 +10749,27 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="12"/>
-      <c r="B561" s="3"/>
+      <c r="B561" s="12"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
-      <c r="E562" s="15"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
-      <c r="E563" s="15"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
-      <c r="E564" s="15"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
-      <c r="E565" s="15"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
-      <c r="E566" s="15"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="12"/>
@@ -10623,12 +10804,10 @@
     <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
-      <c r="E573" s="15"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
-      <c r="B574" s="12"/>
-      <c r="E574" s="15"/>
+      <c r="B574" s="3"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="12"/>
@@ -10692,6 +10871,71 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="12"/>
+      <c r="B587" s="12"/>
+      <c r="E587" s="15"/>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A588" s="12"/>
+      <c r="B588" s="12"/>
+      <c r="E588" s="15"/>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A589" s="12"/>
+      <c r="B589" s="12"/>
+      <c r="E589" s="15"/>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A590" s="12"/>
+      <c r="B590" s="12"/>
+      <c r="E590" s="15"/>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A591" s="12"/>
+      <c r="B591" s="12"/>
+      <c r="E591" s="15"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A592" s="12"/>
+      <c r="B592" s="12"/>
+      <c r="E592" s="15"/>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A593" s="12"/>
+      <c r="B593" s="12"/>
+      <c r="E593" s="15"/>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A594" s="12"/>
+      <c r="B594" s="12"/>
+      <c r="E594" s="15"/>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A595" s="12"/>
+      <c r="B595" s="12"/>
+      <c r="E595" s="15"/>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A596" s="12"/>
+      <c r="B596" s="12"/>
+      <c r="E596" s="15"/>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A597" s="12"/>
+      <c r="B597" s="12"/>
+      <c r="E597" s="15"/>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A598" s="12"/>
+      <c r="B598" s="12"/>
+      <c r="E598" s="15"/>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A599" s="12"/>
+      <c r="B599" s="12"/>
+      <c r="E599" s="15"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A600" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/hauntedparadise/Excels/Language.xlsx
+++ b/hauntedparadise/Excels/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF583D-1CCB-470A-B1B1-E7D7CF6EF4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053AAE2-4A2E-4F27-B5DE-E6B4DB6573E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="954">
   <si>
     <t>int</t>
   </si>
@@ -3088,6 +3088,94 @@
   <si>
     <t>木板</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_item_100001</t>
+  </si>
+  <si>
+    <t>UI_item_100002</t>
+  </si>
+  <si>
+    <t>UI_item_100003</t>
+  </si>
+  <si>
+    <t>UI_item_100004</t>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜块</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timber</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bronze</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingName_0001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingName_0002</t>
+  </si>
+  <si>
+    <t>BuildingName_0003</t>
+  </si>
+  <si>
+    <t>BuildingName_0004</t>
+  </si>
+  <si>
+    <t>BuildingName_0005</t>
+  </si>
+  <si>
+    <t>BuildingName_0006</t>
+  </si>
+  <si>
+    <t>BuildingName_0007</t>
+  </si>
+  <si>
+    <t>BuildingName_0008</t>
+  </si>
+  <si>
+    <t>BuildingName_0009</t>
+  </si>
+  <si>
+    <t>BuildingName_0010</t>
+  </si>
+  <si>
+    <t>BuildingName_0011</t>
+  </si>
+  <si>
+    <t>BuildingName_0012</t>
+  </si>
+  <si>
+    <t>一面由木材建造的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A wall made of wood</t>
   </si>
 </sst>
 </file>
@@ -3715,13 +3803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T600"/>
+  <dimension ref="A1:T616"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E365" sqref="E365"/>
+      <selection pane="bottomRight" activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8523,115 +8611,110 @@
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="A304" s="1">
+        <v>6014</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>6015</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
     <row r="306" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
+        <v>6016</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>6017</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
         <v>20001</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="D309" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="E309" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
+    <row r="310" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
         <v>20002</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D310" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="E307" s="2" t="s">
+      <c r="E310" s="2" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
+    <row r="311" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
         <v>20003</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D311" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="E311" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="2">
+    <row r="312" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
         <v>20004</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B312" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="D309" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
-        <v>20005</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="311" spans="1:20" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
-        <v>20006</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
-      <c r="K311" s="2"/>
-      <c r="L311" s="2"/>
-      <c r="M311" s="2"/>
-      <c r="N311" s="2"/>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
-      <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
-      <c r="S311" s="2"/>
-      <c r="T311" s="2"/>
-    </row>
-    <row r="312" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="1">
-        <v>20007</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>766</v>
@@ -8642,38 +8725,54 @@
     </row>
     <row r="313" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <v>20008</v>
+        <v>20005</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
-        <v>20009</v>
+        <v>20006</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="D314" s="9" t="s">
-        <v>779</v>
+        <v>771</v>
+      </c>
+      <c r="C314" s="2"/>
+      <c r="D314" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>780</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="2"/>
+      <c r="N314" s="2"/>
+      <c r="O314" s="2"/>
+      <c r="P314" s="2"/>
+      <c r="Q314" s="2"/>
+      <c r="R314" s="2"/>
+      <c r="S314" s="2"/>
+      <c r="T314" s="2"/>
     </row>
     <row r="315" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="2">
-        <v>20010</v>
+      <c r="A315" s="1">
+        <v>20007</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>766</v>
@@ -8684,219 +8783,171 @@
     </row>
     <row r="316" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
-        <v>20011</v>
+        <v>20008</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="317" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <v>20012</v>
+        <v>20009</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>786</v>
+        <v>778</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>779</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="318" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="1">
-        <v>20013</v>
+      <c r="A318" s="2">
+        <v>20010</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="319" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D320" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
         <v>20014</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D322" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="E319" s="2" t="s">
+      <c r="E322" s="2" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="320" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="1">
-        <v>20015</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="D320" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="321" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="2">
-        <v>20016</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="D321" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="322" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="1">
-        <v>20017</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D322" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="323" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
-        <v>20018</v>
+        <v>20015</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>802</v>
+        <v>794</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>795</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="324" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="1">
-        <v>20019</v>
+      <c r="A324" s="2">
+        <v>20016</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C324" s="12"/>
+        <v>797</v>
+      </c>
       <c r="D324" s="9" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
-      <c r="Q324" s="12"/>
-      <c r="R324" s="12"/>
-      <c r="S324" s="12"/>
-      <c r="T324" s="12"/>
+        <v>767</v>
+      </c>
     </row>
     <row r="325" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <v>20020</v>
+        <v>20017</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C325" s="12"/>
+        <v>798</v>
+      </c>
       <c r="D325" s="9" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
-      <c r="J325" s="12"/>
-      <c r="K325" s="12"/>
-      <c r="L325" s="12"/>
-      <c r="M325" s="12"/>
-      <c r="N325" s="12"/>
-      <c r="O325" s="12"/>
-      <c r="P325" s="12"/>
-      <c r="Q325" s="12"/>
-      <c r="R325" s="12"/>
-      <c r="S325" s="12"/>
-      <c r="T325" s="12"/>
+        <v>800</v>
+      </c>
     </row>
     <row r="326" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
-        <v>20021</v>
+        <v>20018</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C326" s="12"/>
+        <v>801</v>
+      </c>
       <c r="D326" s="13" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F326" s="12"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
-      <c r="J326" s="12"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
-      <c r="M326" s="12"/>
-      <c r="N326" s="12"/>
-      <c r="O326" s="12"/>
-      <c r="P326" s="12"/>
-      <c r="Q326" s="12"/>
-      <c r="R326" s="12"/>
-      <c r="S326" s="12"/>
-      <c r="T326" s="12"/>
+        <v>803</v>
+      </c>
     </row>
     <row r="327" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="2">
-        <v>20022</v>
+      <c r="A327" s="1">
+        <v>20019</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C327" s="12"/>
       <c r="D327" s="9" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -8916,17 +8967,17 @@
     </row>
     <row r="328" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
-        <v>20023</v>
+        <v>20020</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C328" s="12"/>
       <c r="D328" s="9" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -8946,17 +8997,17 @@
     </row>
     <row r="329" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
-        <v>20024</v>
+        <v>20021</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C329" s="12"/>
-      <c r="D329" s="9" t="s">
-        <v>820</v>
+      <c r="D329" s="13" t="s">
+        <v>811</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -8975,18 +9026,18 @@
       <c r="T329" s="12"/>
     </row>
     <row r="330" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="1">
-        <v>20025</v>
+      <c r="A330" s="2">
+        <v>20022</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C330" s="12"/>
       <c r="D330" s="9" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -9004,19 +9055,19 @@
       <c r="S330" s="12"/>
       <c r="T330" s="12"/>
     </row>
-    <row r="331" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
-        <v>20026</v>
+        <v>20023</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C331" s="12"/>
       <c r="D331" s="9" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -9034,19 +9085,19 @@
       <c r="S331" s="12"/>
       <c r="T331" s="12"/>
     </row>
-    <row r="332" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
-        <v>20027</v>
+        <v>20024</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C332" s="12"/>
       <c r="D332" s="9" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
@@ -9064,19 +9115,19 @@
       <c r="S332" s="12"/>
       <c r="T332" s="12"/>
     </row>
-    <row r="333" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A333" s="2">
-        <v>20028</v>
+    <row r="333" spans="1:20" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>20025</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C333" s="12"/>
       <c r="D333" s="9" t="s">
-        <v>830</v>
+        <v>789</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>831</v>
+        <v>790</v>
       </c>
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
@@ -9096,17 +9147,17 @@
     </row>
     <row r="334" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
-        <v>20029</v>
+        <v>20026</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C334" s="12"/>
       <c r="D334" s="9" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
@@ -9126,17 +9177,17 @@
     </row>
     <row r="335" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
-        <v>20030</v>
+        <v>20027</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C335" s="12"/>
       <c r="D335" s="9" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
@@ -9155,18 +9206,18 @@
       <c r="T335" s="12"/>
     </row>
     <row r="336" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A336" s="1">
-        <v>20031</v>
+      <c r="A336" s="2">
+        <v>20028</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C336" s="12"/>
       <c r="D336" s="9" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
@@ -9186,17 +9237,17 @@
     </row>
     <row r="337" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
-        <v>20032</v>
+        <v>20029</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C337" s="12"/>
       <c r="D337" s="9" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
@@ -9216,17 +9267,17 @@
     </row>
     <row r="338" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
-        <v>20033</v>
+        <v>20030</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C338" s="12"/>
       <c r="D338" s="9" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
@@ -9245,18 +9296,18 @@
       <c r="T338" s="12"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A339" s="2">
-        <v>20034</v>
+      <c r="A339" s="1">
+        <v>20031</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C339" s="12"/>
       <c r="D339" s="9" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -9276,17 +9327,17 @@
     </row>
     <row r="340" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
-        <v>20035</v>
+        <v>20032</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C340" s="12"/>
       <c r="D340" s="9" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -9304,19 +9355,19 @@
       <c r="S340" s="12"/>
       <c r="T340" s="12"/>
     </row>
-    <row r="341" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <v>20036</v>
+        <v>20033</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C341" s="12"/>
       <c r="D341" s="9" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -9335,18 +9386,18 @@
       <c r="T341" s="12"/>
     </row>
     <row r="342" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A342" s="1">
-        <v>20037</v>
+      <c r="A342" s="2">
+        <v>20034</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C342" s="12"/>
       <c r="D342" s="9" t="s">
-        <v>789</v>
+        <v>848</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>790</v>
+        <v>849</v>
       </c>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -9366,17 +9417,17 @@
     </row>
     <row r="343" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
-        <v>20038</v>
+        <v>20035</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C343" s="12"/>
       <c r="D343" s="9" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -9394,19 +9445,19 @@
       <c r="S343" s="12"/>
       <c r="T343" s="12"/>
     </row>
-    <row r="344" spans="1:20" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
-        <v>20039</v>
+        <v>20036</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C344" s="12"/>
-      <c r="D344" s="13" t="s">
-        <v>861</v>
+      <c r="D344" s="9" t="s">
+        <v>854</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F344" s="12"/>
       <c r="G344" s="12"/>
@@ -9425,18 +9476,18 @@
       <c r="T344" s="12"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A345" s="2">
-        <v>20040</v>
+      <c r="A345" s="1">
+        <v>20037</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" s="9" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
@@ -9456,17 +9507,17 @@
     </row>
     <row r="346" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
-        <v>20041</v>
+        <v>20038</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C346" s="12"/>
       <c r="D346" s="9" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
@@ -9484,19 +9535,19 @@
       <c r="S346" s="12"/>
       <c r="T346" s="12"/>
     </row>
-    <row r="347" spans="1:20" ht="190.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" ht="127.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
-        <v>20042</v>
+        <v>20039</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C347" s="12"/>
       <c r="D347" s="13" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
@@ -9515,18 +9566,18 @@
       <c r="T347" s="12"/>
     </row>
     <row r="348" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A348" s="1">
-        <v>20043</v>
+      <c r="A348" s="2">
+        <v>20040</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C348" s="12"/>
       <c r="D348" s="9" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>806</v>
+        <v>767</v>
       </c>
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
@@ -9546,17 +9597,17 @@
     </row>
     <row r="349" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <v>20044</v>
+        <v>20041</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C349" s="12"/>
       <c r="D349" s="9" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
@@ -9574,19 +9625,19 @@
       <c r="S349" s="12"/>
       <c r="T349" s="12"/>
     </row>
-    <row r="350" spans="1:20" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" ht="190.5" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
-        <v>20045</v>
+        <v>20042</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C350" s="12"/>
       <c r="D350" s="13" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
@@ -9604,19 +9655,19 @@
       <c r="S350" s="12"/>
       <c r="T350" s="12"/>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A351" s="11">
-        <v>20101</v>
-      </c>
-      <c r="B351" s="24" t="s">
-        <v>879</v>
+    <row r="351" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>20043</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>870</v>
       </c>
       <c r="C351" s="12"/>
-      <c r="D351" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="E351" s="23" t="s">
-        <v>877</v>
+      <c r="D351" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>806</v>
       </c>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
@@ -9634,19 +9685,19 @@
       <c r="S351" s="12"/>
       <c r="T351" s="12"/>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A352" s="11">
-        <v>20102</v>
-      </c>
-      <c r="B352" s="24" t="s">
-        <v>880</v>
+    <row r="352" spans="1:20" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>20044</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="C352" s="12"/>
-      <c r="D352" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="E352" s="23" t="s">
-        <v>878</v>
+      <c r="D352" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
@@ -9664,19 +9715,19 @@
       <c r="S352" s="12"/>
       <c r="T352" s="12"/>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A353" s="11">
-        <v>20103</v>
-      </c>
-      <c r="B353" s="24" t="s">
-        <v>887</v>
+    <row r="353" spans="1:20" ht="127.5" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>20045</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>874</v>
       </c>
       <c r="C353" s="12"/>
-      <c r="D353" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="E353" s="23" t="s">
-        <v>892</v>
+      <c r="D353" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
@@ -9696,17 +9747,17 @@
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354" s="11">
-        <v>20104</v>
+        <v>20101</v>
       </c>
       <c r="B354" s="24" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C354" s="12"/>
       <c r="D354" s="25" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="E354" s="23" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="F354" s="12"/>
       <c r="G354" s="12"/>
@@ -9726,17 +9777,17 @@
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355" s="11">
-        <v>20105</v>
+        <v>20102</v>
       </c>
       <c r="B355" s="24" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C355" s="12"/>
       <c r="D355" s="25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E355" s="23" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -9756,17 +9807,17 @@
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356" s="11">
-        <v>20106</v>
+        <v>20103</v>
       </c>
       <c r="B356" s="24" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C356" s="12"/>
       <c r="D356" s="25" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="E356" s="23" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
@@ -9786,17 +9837,17 @@
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357" s="11">
-        <v>20107</v>
+        <v>20104</v>
       </c>
       <c r="B357" s="24" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C357" s="12"/>
       <c r="D357" s="25" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E357" s="23" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
@@ -9815,70 +9866,118 @@
       <c r="T357" s="12"/>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B358" s="3"/>
+      <c r="A358" s="11">
+        <v>20105</v>
+      </c>
+      <c r="B358" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C358" s="12"/>
+      <c r="D358" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="E358" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="12"/>
+      <c r="J358" s="12"/>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="12"/>
+      <c r="N358" s="12"/>
+      <c r="O358" s="12"/>
+      <c r="P358" s="12"/>
+      <c r="Q358" s="12"/>
+      <c r="R358" s="12"/>
+      <c r="S358" s="12"/>
+      <c r="T358" s="12"/>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A359" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>927</v>
-      </c>
+      <c r="A359" s="11">
+        <v>20106</v>
+      </c>
+      <c r="B359" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="C359" s="12"/>
+      <c r="D359" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="E359" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="12"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="12"/>
+      <c r="N359" s="12"/>
+      <c r="O359" s="12"/>
+      <c r="P359" s="12"/>
+      <c r="Q359" s="12"/>
+      <c r="R359" s="12"/>
+      <c r="S359" s="12"/>
+      <c r="T359" s="12"/>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A360" s="1">
-        <v>21002</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>927</v>
-      </c>
+      <c r="A360" s="11">
+        <v>20107</v>
+      </c>
+      <c r="B360" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="C360" s="12"/>
+      <c r="D360" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="E360" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="12"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="12"/>
+      <c r="N360" s="12"/>
+      <c r="O360" s="12"/>
+      <c r="P360" s="12"/>
+      <c r="Q360" s="12"/>
+      <c r="R360" s="12"/>
+      <c r="S360" s="12"/>
+      <c r="T360" s="12"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A361" s="1">
-        <v>21003</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>927</v>
-      </c>
+      <c r="B361" s="3"/>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
-        <v>21004</v>
+        <v>21001</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>926</v>
+        <v>953</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
-        <v>21005</v>
+        <v>21002</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>926</v>
@@ -9889,10 +9988,10 @@
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
-        <v>21006</v>
+        <v>21003</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>926</v>
@@ -9903,10 +10002,10 @@
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
-        <v>21007</v>
+        <v>21004</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>926</v>
@@ -9917,10 +10016,10 @@
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
-        <v>21008</v>
+        <v>21005</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>926</v>
@@ -9931,10 +10030,10 @@
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
-        <v>21009</v>
+        <v>21006</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>926</v>
@@ -9945,10 +10044,10 @@
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
-        <v>21010</v>
+        <v>21007</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>926</v>
@@ -9959,10 +10058,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
-        <v>21011</v>
+        <v>21008</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>926</v>
@@ -9973,10 +10072,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
-        <v>21012</v>
+        <v>21009</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>926</v>
@@ -9986,315 +10085,456 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B371" s="3"/>
+      <c r="A371" s="1">
+        <v>21010</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B372" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D372" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="E372" s="26" t="s">
-        <v>899</v>
+        <v>21011</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
-        <v>30002</v>
+        <v>21012</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="D373" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="E373" s="26" t="s">
-        <v>901</v>
+        <v>925</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A374" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B374" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="D374" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="E374" s="26" t="s">
-        <v>902</v>
-      </c>
+      <c r="B374" s="3"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B375" s="30" t="s">
-        <v>912</v>
-      </c>
-      <c r="C375" s="10"/>
-      <c r="D375" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="E375" s="23" t="s">
-        <v>906</v>
+        <v>22001</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B376" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="C376" s="10"/>
-      <c r="D376" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="E376" s="29" t="s">
-        <v>907</v>
+        <v>22002</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
+        <v>22003</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>22004</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>22005</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>22006</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>22007</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>22008</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>22009</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>22010</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>22011</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>22012</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B387" s="3"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B388" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D388" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="E388" s="26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D389" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="E389" s="26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B390" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D390" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="E390" s="26" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B391" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C391" s="10"/>
+      <c r="D391" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="E391" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B392" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="C392" s="10"/>
+      <c r="D392" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="E392" s="29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
         <v>30006</v>
       </c>
-      <c r="B377" s="24" t="s">
+      <c r="B393" s="24" t="s">
         <v>911</v>
       </c>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10" t="s">
+      <c r="C393" s="10"/>
+      <c r="D393" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="E377" s="6" t="s">
+      <c r="E393" s="6" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A378" s="7"/>
-      <c r="B378" s="4"/>
-      <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="6"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A379" s="7"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="6"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A380" s="7"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="10"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="6"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A381" s="7"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="6"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A382" s="7"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="10"/>
-      <c r="D382" s="10"/>
-      <c r="E382" s="6"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="10"/>
-      <c r="D383" s="10"/>
-      <c r="E383" s="6"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A384" s="11"/>
-      <c r="B384" s="5"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-      <c r="E384" s="7"/>
-    </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A385" s="11"/>
-      <c r="B385" s="12"/>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="7"/>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A386" s="11"/>
-      <c r="B386" s="5"/>
-      <c r="C386" s="12"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="15"/>
-    </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A387" s="11"/>
-      <c r="B387" s="5"/>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-      <c r="E387" s="15"/>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A388" s="11"/>
-      <c r="B388" s="5"/>
-      <c r="C388" s="12"/>
-      <c r="D388" s="12"/>
-      <c r="E388" s="15"/>
-    </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A389" s="11"/>
-      <c r="B389" s="5"/>
-      <c r="C389" s="12"/>
-      <c r="D389" s="12"/>
-      <c r="E389" s="7"/>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A390" s="11"/>
-      <c r="B390" s="5"/>
-      <c r="C390" s="12"/>
-      <c r="D390" s="12"/>
-      <c r="E390" s="7"/>
-    </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A391" s="14"/>
-      <c r="B391" s="14"/>
-      <c r="C391" s="17"/>
-      <c r="D391" s="17"/>
-      <c r="E391" s="14"/>
-    </row>
-    <row r="392" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="12"/>
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="15"/>
-      <c r="F392" s="12"/>
-      <c r="G392" s="12"/>
-      <c r="H392" s="12"/>
-      <c r="I392" s="12"/>
-      <c r="J392" s="12"/>
-      <c r="K392" s="12"/>
-      <c r="L392" s="12"/>
-      <c r="M392" s="12"/>
-      <c r="N392" s="12"/>
-      <c r="O392" s="12"/>
-      <c r="P392" s="12"/>
-      <c r="Q392" s="12"/>
-      <c r="R392" s="12"/>
-      <c r="S392" s="12"/>
-      <c r="T392" s="12"/>
-    </row>
-    <row r="400" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
-      <c r="C400" s="10"/>
-      <c r="D400" s="10"/>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" s="7"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="10"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" s="7"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="10"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" s="7"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="10"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" s="7"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="10"/>
+      <c r="D397" s="10"/>
+      <c r="E397" s="6"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" s="7"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="10"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="6"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" s="7"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="10"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="6"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" s="11"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
       <c r="E400" s="7"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A401" s="7"/>
-      <c r="B401" s="20"/>
-      <c r="C401" s="10"/>
-      <c r="D401" s="10"/>
-      <c r="E401" s="21"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A402" s="12"/>
-      <c r="B402" s="20"/>
-      <c r="E402" s="21"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
-      <c r="E403" s="21"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="12"/>
-      <c r="B404" s="20"/>
-      <c r="E404" s="21"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
-      <c r="E405" s="21"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="12"/>
-      <c r="B406" s="20"/>
-      <c r="E406" s="21"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A401" s="11"/>
+      <c r="B401" s="12"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="7"/>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A402" s="11"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="15"/>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A403" s="11"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="15"/>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A404" s="11"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="15"/>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A405" s="11"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="7"/>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A406" s="11"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="7"/>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
+      <c r="C407" s="17"/>
+      <c r="D407" s="17"/>
+      <c r="E407" s="14"/>
+    </row>
+    <row r="408" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="12"/>
-      <c r="B408" s="20"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A409" s="7"/>
-      <c r="B409" s="20"/>
-      <c r="E409" s="21"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A410" s="12"/>
-      <c r="B410" s="20"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
-      <c r="E411" s="21"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A412" s="12"/>
-      <c r="B412" s="20"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A413" s="7"/>
-      <c r="B413" s="20"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A414" s="12"/>
-      <c r="B414" s="20"/>
-      <c r="E414" s="21"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A415" s="7"/>
-      <c r="B415" s="20"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416" s="12"/>
-      <c r="B416" s="20"/>
-      <c r="E416" s="21"/>
-      <c r="G416" s="6"/>
+      <c r="B408" s="12"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="15"/>
+      <c r="F408" s="12"/>
+      <c r="G408" s="12"/>
+      <c r="H408" s="12"/>
+      <c r="I408" s="12"/>
+      <c r="J408" s="12"/>
+      <c r="K408" s="12"/>
+      <c r="L408" s="12"/>
+      <c r="M408" s="12"/>
+      <c r="N408" s="12"/>
+      <c r="O408" s="12"/>
+      <c r="P408" s="12"/>
+      <c r="Q408" s="12"/>
+      <c r="R408" s="12"/>
+      <c r="S408" s="12"/>
+      <c r="T408" s="12"/>
+    </row>
+    <row r="416" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="7"/>
+      <c r="B416" s="7"/>
+      <c r="C416" s="10"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="7"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="7"/>
       <c r="B417" s="20"/>
+      <c r="C417" s="10"/>
+      <c r="D417" s="10"/>
       <c r="E417" s="21"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="12"/>
       <c r="B418" s="20"/>
+      <c r="E418" s="21"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="7"/>
       <c r="B419" s="20"/>
+      <c r="E419" s="21"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="12"/>
       <c r="B420" s="20"/>
+      <c r="E420" s="21"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
@@ -10304,6 +10544,7 @@
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="12"/>
       <c r="B422" s="20"/>
+      <c r="E422" s="21"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="7"/>
@@ -10321,276 +10562,260 @@
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="12"/>
       <c r="B426" s="20"/>
-      <c r="E426" s="21"/>
-      <c r="G426" s="6"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="7"/>
       <c r="B427" s="20"/>
+      <c r="E427" s="21"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="12"/>
       <c r="B428" s="20"/>
-      <c r="E428" s="21"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="7"/>
       <c r="B429" s="20"/>
-      <c r="E429" s="21"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="12"/>
       <c r="B430" s="20"/>
+      <c r="E430" s="21"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A431" s="12"/>
+      <c r="A431" s="7"/>
       <c r="B431" s="20"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A432" s="7"/>
+      <c r="A432" s="12"/>
       <c r="B432" s="20"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A433" s="12"/>
+      <c r="E432" s="21"/>
+      <c r="G432" s="6"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A433" s="7"/>
       <c r="B433" s="20"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A434" s="7"/>
+      <c r="E433" s="21"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A434" s="12"/>
       <c r="B434" s="20"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A435" s="12"/>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A435" s="7"/>
       <c r="B435" s="20"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="12"/>
       <c r="B436" s="20"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="E437" s="15"/>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A437" s="7"/>
+      <c r="B437" s="20"/>
+      <c r="E437" s="21"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="12"/>
-      <c r="B438" s="5"/>
-      <c r="E438" s="15"/>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A439" s="12"/>
-      <c r="B439" s="5"/>
-      <c r="E439" s="15"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B438" s="20"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A439" s="7"/>
+      <c r="B439" s="20"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="12"/>
-      <c r="B440" s="5"/>
-      <c r="E440" s="15"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A441" s="12"/>
-      <c r="B441" s="5"/>
-      <c r="E441" s="15"/>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B440" s="20"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A441" s="7"/>
+      <c r="B441" s="20"/>
+      <c r="E441" s="21"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="12"/>
-      <c r="B442" s="12"/>
-      <c r="E442" s="15"/>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="E492" s="15"/>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A493" s="12"/>
-      <c r="B493" s="12"/>
-      <c r="E493" s="15"/>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A494" s="12"/>
-      <c r="B494" s="12"/>
-      <c r="E494" s="15"/>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A495" s="12"/>
-      <c r="B495" s="12"/>
-      <c r="E495" s="6"/>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A496" s="12"/>
-      <c r="B496" s="12"/>
-      <c r="E496" s="6"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A497" s="12"/>
-      <c r="B497" s="12"/>
-      <c r="E497" s="6"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A498" s="12"/>
-      <c r="B498" s="12"/>
-      <c r="E498" s="15"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A499" s="12"/>
-      <c r="B499" s="12"/>
-      <c r="E499" s="15"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A500" s="12"/>
-      <c r="B500" s="12"/>
-      <c r="E500" s="15"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A501" s="12"/>
-      <c r="B501" s="12"/>
-      <c r="E501" s="15"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A502" s="12"/>
-      <c r="B502" s="12"/>
-      <c r="E502" s="15"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A503" s="12"/>
-      <c r="B503" s="12"/>
-      <c r="E503" s="15"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="E504" s="15"/>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A505" s="12"/>
-      <c r="B505" s="12"/>
-      <c r="E505" s="15"/>
-      <c r="H505" s="12"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A506" s="12"/>
-      <c r="B506" s="12"/>
-      <c r="E506" s="15"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A507" s="12"/>
-      <c r="B507" s="12"/>
-      <c r="E507" s="15"/>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B442" s="20"/>
+      <c r="E442" s="21"/>
+      <c r="G442" s="6"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A443" s="7"/>
+      <c r="B443" s="20"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A444" s="12"/>
+      <c r="B444" s="20"/>
+      <c r="E444" s="21"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A445" s="7"/>
+      <c r="B445" s="20"/>
+      <c r="E445" s="21"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A446" s="12"/>
+      <c r="B446" s="20"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A447" s="12"/>
+      <c r="B447" s="20"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A448" s="7"/>
+      <c r="B448" s="20"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A449" s="12"/>
+      <c r="B449" s="20"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A450" s="7"/>
+      <c r="B450" s="20"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A451" s="12"/>
+      <c r="B451" s="20"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A452" s="12"/>
+      <c r="B452" s="20"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" s="12"/>
+      <c r="B453" s="12"/>
+      <c r="E453" s="15"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A454" s="12"/>
+      <c r="B454" s="5"/>
+      <c r="E454" s="15"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A455" s="12"/>
+      <c r="B455" s="5"/>
+      <c r="E455" s="15"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A456" s="12"/>
+      <c r="B456" s="5"/>
+      <c r="E456" s="15"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A457" s="12"/>
+      <c r="B457" s="5"/>
+      <c r="E457" s="15"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A458" s="12"/>
+      <c r="B458" s="12"/>
+      <c r="E458" s="15"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="E508" s="15"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
-      <c r="E509" s="21"/>
-      <c r="F509" s="22"/>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E509" s="15"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
-      <c r="E510" s="21"/>
-      <c r="F510" s="22"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E510" s="15"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
-      <c r="E511" s="21"/>
-      <c r="F511" s="22"/>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E511" s="6"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
-      <c r="E512" s="21"/>
-      <c r="F512" s="22"/>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E512" s="6"/>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
-      <c r="E513" s="21"/>
-      <c r="F513" s="22"/>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E513" s="6"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
-      <c r="E514" s="21"/>
-      <c r="F514" s="22"/>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E514" s="15"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
-      <c r="F515" s="22"/>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E515" s="15"/>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
-      <c r="F516" s="22"/>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E516" s="15"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
-      <c r="E517" s="21"/>
-      <c r="F517" s="22"/>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E517" s="15"/>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
-      <c r="F518" s="22"/>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E518" s="15"/>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
-      <c r="E519" s="21"/>
-      <c r="F519" s="22"/>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E519" s="15"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
-      <c r="F520" s="22"/>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E520" s="15"/>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
-      <c r="F521" s="22"/>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E521" s="15"/>
+      <c r="H521" s="12"/>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
-      <c r="E522" s="21"/>
-      <c r="F522" s="22"/>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E522" s="15"/>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
-      <c r="F523" s="22"/>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E523" s="15"/>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
-      <c r="E524" s="21"/>
-      <c r="F524" s="22"/>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E524" s="15"/>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="E525" s="21"/>
       <c r="F525" s="22"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
+      <c r="E526" s="21"/>
       <c r="F526" s="22"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
+      <c r="E527" s="21"/>
       <c r="F527" s="22"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
+      <c r="E528" s="21"/>
       <c r="F528" s="22"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
@@ -10602,6 +10827,7 @@
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
+      <c r="E530" s="21"/>
       <c r="F530" s="22"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
@@ -10623,29 +10849,28 @@
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
-      <c r="E534" s="21"/>
       <c r="F534" s="22"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
+      <c r="E535" s="21"/>
       <c r="F535" s="22"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
-      <c r="E536" s="21"/>
       <c r="F536" s="22"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
-      <c r="E537" s="21"/>
       <c r="F537" s="22"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
+      <c r="E538" s="21"/>
       <c r="F538" s="22"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
@@ -10656,11 +10881,13 @@
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
+      <c r="E540" s="21"/>
       <c r="F540" s="22"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
+      <c r="E541" s="21"/>
       <c r="F541" s="22"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
@@ -10678,86 +10905,105 @@
       <c r="B544" s="12"/>
       <c r="F544" s="22"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
-      <c r="E545" s="15"/>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E545" s="21"/>
+      <c r="F545" s="22"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
-      <c r="E546" s="15"/>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F546" s="22"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
-      <c r="E547" s="15"/>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F547" s="22"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F548" s="22"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
-      <c r="E549" s="15"/>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E549" s="21"/>
+      <c r="F549" s="22"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
-      <c r="E550" s="15"/>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E550" s="21"/>
+      <c r="F550" s="22"/>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F551" s="22"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E552" s="21"/>
+      <c r="F552" s="22"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E553" s="21"/>
+      <c r="F553" s="22"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F554" s="22"/>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F555" s="22"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F556" s="22"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F557" s="22"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F558" s="22"/>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F559" s="22"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
+      <c r="F560" s="22"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
+      <c r="E561" s="15"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
+      <c r="E562" s="15"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
+      <c r="E563" s="15"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="12"/>
@@ -10766,40 +11012,36 @@
     <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
+      <c r="E565" s="15"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
+      <c r="E566" s="15"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
-      <c r="E567" s="15"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
-      <c r="E568" s="15"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
-      <c r="E569" s="15"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
-      <c r="E570" s="15"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
-      <c r="E571" s="15"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
-      <c r="E572" s="15"/>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="12"/>
@@ -10807,47 +11049,39 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
-      <c r="B574" s="3"/>
+      <c r="B574" s="12"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
-      <c r="E575" s="15"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
-      <c r="E576" s="15"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
-      <c r="E577" s="15"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
-      <c r="E578" s="15"/>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
-      <c r="E579" s="15"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
-      <c r="E580" s="15"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
-      <c r="E581" s="15"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
-      <c r="E582" s="15"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="12"/>
@@ -10882,12 +11116,10 @@
     <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
-      <c r="E589" s="15"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="12"/>
-      <c r="B590" s="12"/>
-      <c r="E590" s="15"/>
+      <c r="B590" s="3"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="12"/>
@@ -10936,6 +11168,86 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="12"/>
+      <c r="B600" s="12"/>
+      <c r="E600" s="15"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A601" s="12"/>
+      <c r="B601" s="12"/>
+      <c r="E601" s="15"/>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A602" s="12"/>
+      <c r="B602" s="12"/>
+      <c r="E602" s="15"/>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A603" s="12"/>
+      <c r="B603" s="12"/>
+      <c r="E603" s="15"/>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A604" s="12"/>
+      <c r="B604" s="12"/>
+      <c r="E604" s="15"/>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A605" s="12"/>
+      <c r="B605" s="12"/>
+      <c r="E605" s="15"/>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A606" s="12"/>
+      <c r="B606" s="12"/>
+      <c r="E606" s="15"/>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A607" s="12"/>
+      <c r="B607" s="12"/>
+      <c r="E607" s="15"/>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A608" s="12"/>
+      <c r="B608" s="12"/>
+      <c r="E608" s="15"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A609" s="12"/>
+      <c r="B609" s="12"/>
+      <c r="E609" s="15"/>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A610" s="12"/>
+      <c r="B610" s="12"/>
+      <c r="E610" s="15"/>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A611" s="12"/>
+      <c r="B611" s="12"/>
+      <c r="E611" s="15"/>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A612" s="12"/>
+      <c r="B612" s="12"/>
+      <c r="E612" s="15"/>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A613" s="12"/>
+      <c r="B613" s="12"/>
+      <c r="E613" s="15"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A614" s="12"/>
+      <c r="B614" s="12"/>
+      <c r="E614" s="15"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A615" s="12"/>
+      <c r="B615" s="12"/>
+      <c r="E615" s="15"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A616" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/hauntedparadise/Excels/Language.xlsx
+++ b/hauntedparadise/Excels/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053AAE2-4A2E-4F27-B5DE-E6B4DB6573E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1AF36-2399-48D7-8D59-5310D856BB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1046">
   <si>
     <t>int</t>
   </si>
@@ -3082,14 +3082,6 @@
     <t>BuildingDesc_0012</t>
   </si>
   <si>
-    <t>Wooden Board</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>木板</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>UI_item_100001</t>
   </si>
   <si>
@@ -3171,11 +3163,336 @@
     <t>BuildingName_0012</t>
   </si>
   <si>
-    <t>一面由木材建造的墙</t>
+    <t>BuildingDesc_0013</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0014</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0015</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0016</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0017</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0018</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0019</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0020</t>
+  </si>
+  <si>
+    <t>BuildingName_0013</t>
+  </si>
+  <si>
+    <t>BuildingName_0014</t>
+  </si>
+  <si>
+    <t>BuildingName_0015</t>
+  </si>
+  <si>
+    <t>BuildingName_0016</t>
+  </si>
+  <si>
+    <t>BuildingName_0017</t>
+  </si>
+  <si>
+    <t>BuildingName_0018</t>
+  </si>
+  <si>
+    <t>BuildingName_0019</t>
+  </si>
+  <si>
+    <t>BuildingName_0020</t>
+  </si>
+  <si>
+    <t>木墙</t>
+  </si>
+  <si>
+    <t>三角形木墙</t>
+  </si>
+  <si>
+    <t>带窗木墙</t>
+  </si>
+  <si>
+    <t>带门木墙</t>
+  </si>
+  <si>
+    <t>木质楼梯</t>
+  </si>
+  <si>
+    <t>石墙</t>
+  </si>
+  <si>
+    <t>三角形石墙</t>
+  </si>
+  <si>
+    <t>带窗石墙</t>
+  </si>
+  <si>
+    <t>带门石墙</t>
+  </si>
+  <si>
+    <t>石质楼梯</t>
+  </si>
+  <si>
+    <t>铁墙</t>
+  </si>
+  <si>
+    <t>三角形铁墙</t>
+  </si>
+  <si>
+    <t>带窗铁墙</t>
+  </si>
+  <si>
+    <t>带门铁墙</t>
+  </si>
+  <si>
+    <t>铁质楼梯</t>
+  </si>
+  <si>
+    <t>金属墙</t>
+  </si>
+  <si>
+    <t>三角形金属墙</t>
+  </si>
+  <si>
+    <t>带窗金属墙</t>
+  </si>
+  <si>
+    <t>带门金属墙</t>
+  </si>
+  <si>
+    <t>金属楼梯</t>
+  </si>
+  <si>
+    <t>Wooden walls</t>
+  </si>
+  <si>
+    <t>Triangular wooden walls</t>
+  </si>
+  <si>
+    <t>Wooden walls with windows</t>
+  </si>
+  <si>
+    <t>Wooden wall with doors</t>
+  </si>
+  <si>
+    <t>Wooden staircase</t>
+  </si>
+  <si>
+    <t>Triangular stone wall</t>
+  </si>
+  <si>
+    <t>Stone wall with windows</t>
+  </si>
+  <si>
+    <t>Stone wall with doors</t>
+  </si>
+  <si>
+    <t>Iron Walls</t>
+  </si>
+  <si>
+    <t>Triangular iron wall</t>
+  </si>
+  <si>
+    <t>Iron wall with windows</t>
+  </si>
+  <si>
+    <t>Iron wall with doors</t>
+  </si>
+  <si>
+    <t>Iron staircase</t>
+  </si>
+  <si>
+    <t>Metal wall with doors</t>
+  </si>
+  <si>
+    <t>Metal staircase</t>
+  </si>
+  <si>
+    <t>Stone wall</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>A wall made of wood</t>
+    <t>由木材建造的楼梯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由木材建造的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由木材建造的三角形墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由木材建造的带着窗户的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由木材建造的带着门的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stairs made of wood</t>
+  </si>
+  <si>
+    <t>Triangular wall made of wood</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of wood with windows</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of wood</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of wood with a door</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone staircase</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由石头建造的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由石头建造的三角形墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由石头建造的带着窗户的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由石头建造的带着门的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由石头建造的楼梯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of stone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of stone with windows</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of stone with a door</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stairs made of stone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由铁块建造的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由铁块建造的三角形墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由铁块建造的带着窗户的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由铁块建造的带着门的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由铁块建造的楼梯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of iron</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangular wall made of iron</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangular wall made of stone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of iron with windows</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of iron with a door</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stairs made of iron</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由金属建造的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由金属建造的三角形墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由金属建造的带着窗户的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由金属建造的带着门的墙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由金属建造的楼梯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal walls</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal walls with windows</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangular metal walls</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of metal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangular wall made of metal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of metal with windows</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall made of metal with a door</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stairs made of metal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3803,13 +4120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T616"/>
+  <dimension ref="A1:T632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D365" sqref="D365"/>
+      <selection pane="bottomRight" activeCell="E408" sqref="E408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8615,13 +8932,13 @@
         <v>6014</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="305" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -8629,13 +8946,13 @@
         <v>6015</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="306" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -8643,13 +8960,13 @@
         <v>6016</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="307" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -8657,13 +8974,13 @@
         <v>6017</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="308" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9966,10 +10283,10 @@
         <v>914</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>953</v>
+        <v>1010</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>952</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.35">
@@ -9980,10 +10297,10 @@
         <v>915</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>926</v>
+        <v>1008</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>927</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.35">
@@ -9994,10 +10311,10 @@
         <v>916</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>926</v>
+        <v>1009</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>927</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.35">
@@ -10008,10 +10325,10 @@
         <v>917</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>926</v>
+        <v>1011</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>927</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.35">
@@ -10022,10 +10339,10 @@
         <v>918</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>926</v>
+        <v>1007</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.35">
@@ -10036,10 +10353,10 @@
         <v>919</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>926</v>
+        <v>1018</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>927</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.35">
@@ -10050,10 +10367,10 @@
         <v>920</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>926</v>
+        <v>1029</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>927</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
@@ -10064,10 +10381,10 @@
         <v>921</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>926</v>
+        <v>1019</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>927</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
@@ -10078,10 +10395,10 @@
         <v>922</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>926</v>
+        <v>1020</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>927</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
@@ -10092,10 +10409,10 @@
         <v>923</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>926</v>
+        <v>1021</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
@@ -10106,10 +10423,10 @@
         <v>924</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>926</v>
+        <v>1027</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>927</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -10120,493 +10437,645 @@
         <v>925</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>927</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B374" s="3"/>
+      <c r="A374" s="1">
+        <v>21013</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
-        <v>22001</v>
+        <v>21014</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>926</v>
+        <v>1031</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>927</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
-        <v>22002</v>
+        <v>21015</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>927</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
-        <v>22003</v>
+        <v>21016</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>926</v>
+        <v>1041</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>927</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
-        <v>22004</v>
+        <v>21017</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>926</v>
+        <v>1042</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>927</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
-        <v>22005</v>
+        <v>21018</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>926</v>
+        <v>1043</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>927</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
-        <v>22006</v>
+        <v>21019</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>926</v>
+        <v>1044</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>927</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
-        <v>22007</v>
+        <v>21020</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>926</v>
+        <v>1045</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>927</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A382" s="1">
-        <v>22008</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>927</v>
-      </c>
+      <c r="B382" s="3"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
-        <v>22009</v>
+        <v>22001</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>926</v>
+        <v>986</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>927</v>
+        <v>966</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
-        <v>22010</v>
+        <v>22002</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>926</v>
+        <v>987</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>927</v>
+        <v>967</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
-        <v>22011</v>
+        <v>22003</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>926</v>
+        <v>988</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>927</v>
+        <v>968</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
-        <v>22012</v>
+        <v>22004</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>926</v>
+        <v>989</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B387" s="3"/>
+      <c r="A387" s="1">
+        <v>22005</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B388" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D388" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="E388" s="26" t="s">
-        <v>899</v>
+        <v>22006</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
-        <v>30002</v>
+        <v>22007</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="D389" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="E389" s="26" t="s">
-        <v>901</v>
+        <v>944</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B390" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="D390" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="E390" s="26" t="s">
-        <v>902</v>
+        <v>22008</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B391" s="30" t="s">
-        <v>912</v>
-      </c>
-      <c r="C391" s="10"/>
-      <c r="D391" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="E391" s="23" t="s">
-        <v>906</v>
+        <v>22009</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B392" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="C392" s="10"/>
-      <c r="D392" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="E392" s="29" t="s">
-        <v>907</v>
+        <v>22010</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
+        <v>22011</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>22012</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>22013</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>22014</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>22015</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>22016</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>22017</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
+        <v>22018</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
+        <v>22019</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A402" s="1">
+        <v>22020</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B403" s="3"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B404" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D404" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="E404" s="26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D405" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="E405" s="26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D406" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="E406" s="26" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B407" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C407" s="10"/>
+      <c r="D407" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="E407" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B408" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="C408" s="10"/>
+      <c r="D408" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="E408" s="29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
         <v>30006</v>
       </c>
-      <c r="B393" s="24" t="s">
+      <c r="B409" s="24" t="s">
         <v>911</v>
       </c>
-      <c r="C393" s="10"/>
-      <c r="D393" s="10" t="s">
+      <c r="C409" s="10"/>
+      <c r="D409" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="E393" s="6" t="s">
+      <c r="E409" s="6" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A394" s="7"/>
-      <c r="B394" s="4"/>
-      <c r="C394" s="10"/>
-      <c r="D394" s="10"/>
-      <c r="E394" s="6"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
-      <c r="C395" s="10"/>
-      <c r="D395" s="10"/>
-      <c r="E395" s="6"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="6"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="10"/>
-      <c r="D397" s="10"/>
-      <c r="E397" s="6"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
-      <c r="C398" s="10"/>
-      <c r="D398" s="10"/>
-      <c r="E398" s="6"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
-      <c r="C399" s="10"/>
-      <c r="D399" s="10"/>
-      <c r="E399" s="6"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A400" s="11"/>
-      <c r="B400" s="5"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="12"/>
-      <c r="E400" s="7"/>
-    </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A401" s="11"/>
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="12"/>
-      <c r="E401" s="7"/>
-    </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A402" s="11"/>
-      <c r="B402" s="5"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="5"/>
-      <c r="E402" s="15"/>
-    </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A403" s="11"/>
-      <c r="B403" s="5"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="15"/>
-    </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A404" s="11"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="15"/>
-    </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A405" s="11"/>
-      <c r="B405" s="5"/>
-      <c r="C405" s="12"/>
-      <c r="D405" s="12"/>
-      <c r="E405" s="7"/>
-    </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A406" s="11"/>
-      <c r="B406" s="5"/>
-      <c r="C406" s="12"/>
-      <c r="D406" s="12"/>
-      <c r="E406" s="7"/>
-    </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A407" s="14"/>
-      <c r="B407" s="14"/>
-      <c r="C407" s="17"/>
-      <c r="D407" s="17"/>
-      <c r="E407" s="14"/>
-    </row>
-    <row r="408" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="12"/>
-      <c r="B408" s="12"/>
-      <c r="C408" s="12"/>
-      <c r="D408" s="12"/>
-      <c r="E408" s="15"/>
-      <c r="F408" s="12"/>
-      <c r="G408" s="12"/>
-      <c r="H408" s="12"/>
-      <c r="I408" s="12"/>
-      <c r="J408" s="12"/>
-      <c r="K408" s="12"/>
-      <c r="L408" s="12"/>
-      <c r="M408" s="12"/>
-      <c r="N408" s="12"/>
-      <c r="O408" s="12"/>
-      <c r="P408" s="12"/>
-      <c r="Q408" s="12"/>
-      <c r="R408" s="12"/>
-      <c r="S408" s="12"/>
-      <c r="T408" s="12"/>
-    </row>
-    <row r="416" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
-      <c r="C416" s="10"/>
-      <c r="D416" s="10"/>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" s="7"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="10"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" s="7"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="10"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" s="7"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="10"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" s="7"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="10"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" s="7"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="10"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" s="7"/>
+      <c r="B415" s="20"/>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" s="11"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
       <c r="E416" s="7"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A417" s="7"/>
-      <c r="B417" s="20"/>
-      <c r="C417" s="10"/>
-      <c r="D417" s="10"/>
-      <c r="E417" s="21"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A418" s="12"/>
-      <c r="B418" s="20"/>
-      <c r="E418" s="21"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A419" s="7"/>
-      <c r="B419" s="20"/>
-      <c r="E419" s="21"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A420" s="12"/>
-      <c r="B420" s="20"/>
-      <c r="E420" s="21"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A421" s="7"/>
-      <c r="B421" s="20"/>
-      <c r="E421" s="21"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A422" s="12"/>
-      <c r="B422" s="20"/>
-      <c r="E422" s="21"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A423" s="7"/>
-      <c r="B423" s="20"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A417" s="11"/>
+      <c r="B417" s="12"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="7"/>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A418" s="11"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="15"/>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A419" s="11"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="15"/>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A420" s="11"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="15"/>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A421" s="11"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="7"/>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A422" s="11"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="7"/>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
+      <c r="C423" s="17"/>
+      <c r="D423" s="17"/>
+      <c r="E423" s="14"/>
+    </row>
+    <row r="424" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="20"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A425" s="7"/>
-      <c r="B425" s="20"/>
-      <c r="E425" s="21"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A426" s="12"/>
-      <c r="B426" s="20"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A427" s="7"/>
-      <c r="B427" s="20"/>
-      <c r="E427" s="21"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A428" s="12"/>
-      <c r="B428" s="20"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A429" s="7"/>
-      <c r="B429" s="20"/>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A430" s="12"/>
-      <c r="B430" s="20"/>
-      <c r="E430" s="21"/>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A431" s="7"/>
-      <c r="B431" s="20"/>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A432" s="12"/>
-      <c r="B432" s="20"/>
-      <c r="E432" s="21"/>
-      <c r="G432" s="6"/>
+      <c r="B424" s="12"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="15"/>
+      <c r="F424" s="12"/>
+      <c r="G424" s="12"/>
+      <c r="H424" s="12"/>
+      <c r="I424" s="12"/>
+      <c r="J424" s="12"/>
+      <c r="K424" s="12"/>
+      <c r="L424" s="12"/>
+      <c r="M424" s="12"/>
+      <c r="N424" s="12"/>
+      <c r="O424" s="12"/>
+      <c r="P424" s="12"/>
+      <c r="Q424" s="12"/>
+      <c r="R424" s="12"/>
+      <c r="S424" s="12"/>
+      <c r="T424" s="12"/>
+    </row>
+    <row r="432" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="7"/>
+      <c r="B432" s="7"/>
+      <c r="C432" s="10"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="7"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="7"/>
       <c r="B433" s="20"/>
+      <c r="C433" s="10"/>
+      <c r="D433" s="10"/>
       <c r="E433" s="21"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="12"/>
       <c r="B434" s="20"/>
+      <c r="E434" s="21"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="7"/>
       <c r="B435" s="20"/>
+      <c r="E435" s="21"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="12"/>
       <c r="B436" s="20"/>
+      <c r="E436" s="21"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="7"/>
@@ -10616,6 +11085,7 @@
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="12"/>
       <c r="B438" s="20"/>
+      <c r="E438" s="21"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="7"/>
@@ -10633,276 +11103,260 @@
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="12"/>
       <c r="B442" s="20"/>
-      <c r="E442" s="21"/>
-      <c r="G442" s="6"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="7"/>
       <c r="B443" s="20"/>
+      <c r="E443" s="21"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="12"/>
       <c r="B444" s="20"/>
-      <c r="E444" s="21"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="7"/>
       <c r="B445" s="20"/>
-      <c r="E445" s="21"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="12"/>
       <c r="B446" s="20"/>
+      <c r="E446" s="21"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A447" s="12"/>
+      <c r="A447" s="7"/>
       <c r="B447" s="20"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A448" s="7"/>
+      <c r="A448" s="12"/>
       <c r="B448" s="20"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A449" s="12"/>
+      <c r="E448" s="21"/>
+      <c r="G448" s="6"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A449" s="7"/>
       <c r="B449" s="20"/>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A450" s="7"/>
+      <c r="E449" s="21"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A450" s="12"/>
       <c r="B450" s="20"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A451" s="12"/>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A451" s="7"/>
       <c r="B451" s="20"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="12"/>
       <c r="B452" s="20"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A453" s="12"/>
-      <c r="B453" s="12"/>
-      <c r="E453" s="15"/>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A453" s="7"/>
+      <c r="B453" s="20"/>
+      <c r="E453" s="21"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="12"/>
-      <c r="B454" s="5"/>
-      <c r="E454" s="15"/>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A455" s="12"/>
-      <c r="B455" s="5"/>
-      <c r="E455" s="15"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B454" s="20"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A455" s="7"/>
+      <c r="B455" s="20"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="12"/>
-      <c r="B456" s="5"/>
-      <c r="E456" s="15"/>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A457" s="12"/>
-      <c r="B457" s="5"/>
-      <c r="E457" s="15"/>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B456" s="20"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A457" s="7"/>
+      <c r="B457" s="20"/>
+      <c r="E457" s="21"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="12"/>
-      <c r="B458" s="12"/>
-      <c r="E458" s="15"/>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A508" s="12"/>
-      <c r="B508" s="12"/>
-      <c r="E508" s="15"/>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A509" s="12"/>
-      <c r="B509" s="12"/>
-      <c r="E509" s="15"/>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A510" s="12"/>
-      <c r="B510" s="12"/>
-      <c r="E510" s="15"/>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A511" s="12"/>
-      <c r="B511" s="12"/>
-      <c r="E511" s="6"/>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A512" s="12"/>
-      <c r="B512" s="12"/>
-      <c r="E512" s="6"/>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A513" s="12"/>
-      <c r="B513" s="12"/>
-      <c r="E513" s="6"/>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A514" s="12"/>
-      <c r="B514" s="12"/>
-      <c r="E514" s="15"/>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A515" s="12"/>
-      <c r="B515" s="12"/>
-      <c r="E515" s="15"/>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A516" s="12"/>
-      <c r="B516" s="12"/>
-      <c r="E516" s="15"/>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A517" s="12"/>
-      <c r="B517" s="12"/>
-      <c r="E517" s="15"/>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A518" s="12"/>
-      <c r="B518" s="12"/>
-      <c r="E518" s="15"/>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A519" s="12"/>
-      <c r="B519" s="12"/>
-      <c r="E519" s="15"/>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A520" s="12"/>
-      <c r="B520" s="12"/>
-      <c r="E520" s="15"/>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A521" s="12"/>
-      <c r="B521" s="12"/>
-      <c r="E521" s="15"/>
-      <c r="H521" s="12"/>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A522" s="12"/>
-      <c r="B522" s="12"/>
-      <c r="E522" s="15"/>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A523" s="12"/>
-      <c r="B523" s="12"/>
-      <c r="E523" s="15"/>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B458" s="20"/>
+      <c r="E458" s="21"/>
+      <c r="G458" s="6"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A459" s="7"/>
+      <c r="B459" s="20"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A460" s="12"/>
+      <c r="B460" s="20"/>
+      <c r="E460" s="21"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A461" s="7"/>
+      <c r="B461" s="20"/>
+      <c r="E461" s="21"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A462" s="12"/>
+      <c r="B462" s="20"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A463" s="12"/>
+      <c r="B463" s="20"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A464" s="7"/>
+      <c r="B464" s="20"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A465" s="12"/>
+      <c r="B465" s="20"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A466" s="7"/>
+      <c r="B466" s="20"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A467" s="12"/>
+      <c r="B467" s="20"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A468" s="12"/>
+      <c r="B468" s="20"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A469" s="12"/>
+      <c r="B469" s="12"/>
+      <c r="E469" s="15"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A470" s="12"/>
+      <c r="B470" s="5"/>
+      <c r="E470" s="15"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A471" s="12"/>
+      <c r="B471" s="5"/>
+      <c r="E471" s="15"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A472" s="12"/>
+      <c r="B472" s="5"/>
+      <c r="E472" s="15"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A473" s="12"/>
+      <c r="B473" s="5"/>
+      <c r="E473" s="15"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A474" s="12"/>
+      <c r="B474" s="12"/>
+      <c r="E474" s="15"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="E524" s="15"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
-      <c r="E525" s="21"/>
-      <c r="F525" s="22"/>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E525" s="15"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
-      <c r="E526" s="21"/>
-      <c r="F526" s="22"/>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E526" s="15"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
-      <c r="E527" s="21"/>
-      <c r="F527" s="22"/>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E527" s="6"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
-      <c r="E528" s="21"/>
-      <c r="F528" s="22"/>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E528" s="6"/>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
-      <c r="E529" s="21"/>
-      <c r="F529" s="22"/>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E529" s="6"/>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
-      <c r="E530" s="21"/>
-      <c r="F530" s="22"/>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E530" s="15"/>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
-      <c r="F531" s="22"/>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E531" s="15"/>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
-      <c r="F532" s="22"/>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E532" s="15"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
-      <c r="E533" s="21"/>
-      <c r="F533" s="22"/>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E533" s="15"/>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
-      <c r="F534" s="22"/>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E534" s="15"/>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
-      <c r="E535" s="21"/>
-      <c r="F535" s="22"/>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E535" s="15"/>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
-      <c r="F536" s="22"/>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E536" s="15"/>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
-      <c r="F537" s="22"/>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E537" s="15"/>
+      <c r="H537" s="12"/>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
-      <c r="E538" s="21"/>
-      <c r="F538" s="22"/>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E538" s="15"/>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
-      <c r="F539" s="22"/>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E539" s="15"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
-      <c r="E540" s="21"/>
-      <c r="F540" s="22"/>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E540" s="15"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="E541" s="21"/>
       <c r="F541" s="22"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
+      <c r="E542" s="21"/>
       <c r="F542" s="22"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
+      <c r="E543" s="21"/>
       <c r="F543" s="22"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
+      <c r="E544" s="21"/>
       <c r="F544" s="22"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
@@ -10914,6 +11368,7 @@
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
+      <c r="E546" s="21"/>
       <c r="F546" s="22"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
@@ -10935,29 +11390,28 @@
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
-      <c r="E550" s="21"/>
       <c r="F550" s="22"/>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
+      <c r="E551" s="21"/>
       <c r="F551" s="22"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
-      <c r="E552" s="21"/>
       <c r="F552" s="22"/>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
-      <c r="E553" s="21"/>
       <c r="F553" s="22"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
+      <c r="E554" s="21"/>
       <c r="F554" s="22"/>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
@@ -10968,11 +11422,13 @@
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
+      <c r="E556" s="21"/>
       <c r="F556" s="22"/>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
+      <c r="E557" s="21"/>
       <c r="F557" s="22"/>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
@@ -10990,86 +11446,105 @@
       <c r="B560" s="12"/>
       <c r="F560" s="22"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
-      <c r="E561" s="15"/>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E561" s="21"/>
+      <c r="F561" s="22"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
-      <c r="E562" s="15"/>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F562" s="22"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
-      <c r="E563" s="15"/>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F563" s="22"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F564" s="22"/>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
-      <c r="E565" s="15"/>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E565" s="21"/>
+      <c r="F565" s="22"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
-      <c r="E566" s="15"/>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E566" s="21"/>
+      <c r="F566" s="22"/>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F567" s="22"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E568" s="21"/>
+      <c r="F568" s="22"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E569" s="21"/>
+      <c r="F569" s="22"/>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F570" s="22"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F571" s="22"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F572" s="22"/>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F573" s="22"/>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F574" s="22"/>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F575" s="22"/>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
+      <c r="F576" s="22"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
+      <c r="E577" s="15"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
+      <c r="E578" s="15"/>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
+      <c r="E579" s="15"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="12"/>
@@ -11078,40 +11553,36 @@
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
+      <c r="E581" s="15"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
+      <c r="E582" s="15"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
-      <c r="E583" s="15"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
-      <c r="E584" s="15"/>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
-      <c r="E585" s="15"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
-      <c r="E586" s="15"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
-      <c r="E587" s="15"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
-      <c r="E588" s="15"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="12"/>
@@ -11119,47 +11590,39 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="12"/>
-      <c r="B590" s="3"/>
+      <c r="B590" s="12"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
-      <c r="E591" s="15"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
-      <c r="E592" s="15"/>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
-      <c r="E593" s="15"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
-      <c r="E594" s="15"/>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
-      <c r="E595" s="15"/>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
-      <c r="E596" s="15"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
-      <c r="E597" s="15"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
-      <c r="E598" s="15"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" s="12"/>
@@ -11194,12 +11657,10 @@
     <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
-      <c r="E605" s="15"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" s="12"/>
-      <c r="B606" s="12"/>
-      <c r="E606" s="15"/>
+      <c r="B606" s="3"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" s="12"/>
@@ -11248,6 +11709,86 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="12"/>
+      <c r="B616" s="12"/>
+      <c r="E616" s="15"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A617" s="12"/>
+      <c r="B617" s="12"/>
+      <c r="E617" s="15"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A618" s="12"/>
+      <c r="B618" s="12"/>
+      <c r="E618" s="15"/>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A619" s="12"/>
+      <c r="B619" s="12"/>
+      <c r="E619" s="15"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A620" s="12"/>
+      <c r="B620" s="12"/>
+      <c r="E620" s="15"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A621" s="12"/>
+      <c r="B621" s="12"/>
+      <c r="E621" s="15"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A622" s="12"/>
+      <c r="B622" s="12"/>
+      <c r="E622" s="15"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A623" s="12"/>
+      <c r="B623" s="12"/>
+      <c r="E623" s="15"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A624" s="12"/>
+      <c r="B624" s="12"/>
+      <c r="E624" s="15"/>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A625" s="12"/>
+      <c r="B625" s="12"/>
+      <c r="E625" s="15"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A626" s="12"/>
+      <c r="B626" s="12"/>
+      <c r="E626" s="15"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A627" s="12"/>
+      <c r="B627" s="12"/>
+      <c r="E627" s="15"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A628" s="12"/>
+      <c r="B628" s="12"/>
+      <c r="E628" s="15"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A629" s="12"/>
+      <c r="B629" s="12"/>
+      <c r="E629" s="15"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A630" s="12"/>
+      <c r="B630" s="12"/>
+      <c r="E630" s="15"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A631" s="12"/>
+      <c r="B631" s="12"/>
+      <c r="E631" s="15"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A632" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
